--- a/ig/ch-orf/StructureDefinition-ch-orf-consent.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-consent.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T10:23:05+01:00</t>
+    <t>2023-12-28T11:41:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1651,17 +1651,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.04296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.9921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.11328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.03515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1670,26 +1670,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="55.12890625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="125.95703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.5703125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="54.74609375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="121.84765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="46.4453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="46.53125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="45.09765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="45.9453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-orf/StructureDefinition-ch-orf-consent.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-consent.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="417">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:41:33+01:00</t>
+    <t>2024-05-17T06:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -942,19 +942,20 @@
     <t>Value of extension</t>
   </si>
   <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
   </si>
   <si>
     <t>not-applicable</t>
   </si>
   <si>
-    <t>Used to specify why the normally expected content of the data element is missing.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
   </si>
   <si>
     <t>Consent.policyRule.coding</t>
@@ -1651,17 +1652,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.11328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.03515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.04296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.9921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1670,26 +1671,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="54.74609375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="121.84765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="55.12890625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="125.95703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.5703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="45.09765625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="45.9453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="46.4453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="46.53125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5248,7 +5249,7 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>241</v>
+        <v>91</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>242</v>
@@ -5314,7 +5315,7 @@
         <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -5621,29 +5622,27 @@
       <c r="X35" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Y35" s="2"/>
+      <c r="Z35" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="Z35" t="s" s="2">
+      <c r="AA35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5652,7 +5651,7 @@
         <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>101</v>

--- a/ig/ch-orf/StructureDefinition-ch-orf-consent.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-consent.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T06:38:56+00:00</t>
+    <t>2024-12-18T08:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-orf/StructureDefinition-ch-orf-consent.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-consent.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:35:04+00:00</t>
+    <t>2025-05-22T07:56:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -887,7 +887,7 @@
     <t>data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {data-absent-reason}
+    <t xml:space="preserve">Extension {data-absent-reason|5.2.0}
 </t>
   </si>
   <si>
@@ -1215,7 +1215,7 @@
     <t>What purposes of use are controlled by this exception. If more than one label is specified, operations must have all the specified labels.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse|3.1.0</t>
   </si>
   <si>
     <t>Consent.provision.class</t>
@@ -1652,17 +1652,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.04296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.9921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.26171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.33203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.28125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.7890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1671,26 +1671,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="55.12890625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="125.95703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.5703125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="47.265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="107.984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.39453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="46.4453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="46.53125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="39.8203125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="39.890625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-orf/StructureDefinition-ch-orf-consent.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-consent.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="416">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>3.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T07:56:23+00:00</t>
+    <t>2025-12-16T09:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -371,7 +371,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -609,7 +609,7 @@
     <t>The four anticipated uses for the Consent Resource.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/consent-scope</t>
+    <t>http://hl7.org/fhir/ValueSet/consent-scope|4.0.1</t>
   </si>
   <si>
     <t>Consent.category</t>
@@ -632,7 +632,7 @@
     <t>A classification of the type of consents found in a consent statement.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/consent-category</t>
+    <t>http://hl7.org/fhir/ValueSet/consent-category|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -650,7 +650,7 @@
     <t>Consent.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(Patient|4.0.1)
 </t>
   </si>
   <si>
@@ -707,7 +707,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Patient|Practitioner|RelatedPerson|PractitionerRole)
+    <t xml:space="preserve">Reference(Organization|4.0.1|Patient|4.0.1|Practitioner|4.0.1|RelatedPerson|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -736,7 +736,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -753,7 +753,7 @@
   </si>
   <si>
     <t>Attachment
-Reference(Consent|DocumentReference|Contract|QuestionnaireResponse)</t>
+Reference(Consent|4.0.1|DocumentReference|4.0.1|Contract|4.0.1|QuestionnaireResponse|4.0.1)</t>
   </si>
   <si>
     <t>Source from which this consent is taken</t>
@@ -869,7 +869,7 @@
     <t>Regulatory policy examples.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/consent-policy</t>
+    <t>http://hl7.org/fhir/ValueSet/consent-policy|4.0.1</t>
   </si>
   <si>
     <t>Consent.policyRule.id</t>
@@ -887,7 +887,7 @@
     <t>data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {data-absent-reason|5.2.0}
+    <t xml:space="preserve">Extension {data-absent-reason|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -942,7 +942,7 @@
     <t>Value of extension</t>
   </si>
   <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
     <t>not-applicable</t>
@@ -952,10 +952,6 @@
   </si>
   <si>
     <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext-1
-</t>
   </si>
   <si>
     <t>Consent.policyRule.coding</t>
@@ -1044,7 +1040,7 @@
     <t>Consent.verification.verifiedWith</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1142,13 +1138,13 @@
     <t>How an actor is involved in the consent considerations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-role-type</t>
+    <t>http://hl7.org/fhir/ValueSet/security-role-type|4.0.1</t>
   </si>
   <si>
     <t>Consent.provision.actor.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|Group|CareTeam|Organization|Patient|Practitioner|RelatedPerson|PractitionerRole)
+    <t xml:space="preserve">Reference(Device|4.0.1|Group|4.0.1|CareTeam|4.0.1|Organization|4.0.1|Patient|4.0.1|Practitioner|4.0.1|RelatedPerson|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1179,7 +1175,7 @@
     <t>Detailed codes for the consent action.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/consent-action</t>
+    <t>http://hl7.org/fhir/ValueSet/consent-action|4.0.1</t>
   </si>
   <si>
     <t>Consent.provision.securityLabel</t>
@@ -1197,7 +1193,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Consent.provision.purpose</t>
@@ -1215,7 +1211,7 @@
     <t>What purposes of use are controlled by this exception. If more than one label is specified, operations must have all the specified labels.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse|3.1.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse</t>
   </si>
   <si>
     <t>Consent.provision.class</t>
@@ -1233,7 +1229,7 @@
     <t>The class (type) of information a consent rule covers.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/consent-content-class</t>
+    <t>http://hl7.org/fhir/ValueSet/consent-content-class|4.0.1</t>
   </si>
   <si>
     <t>Consent.provision.code</t>
@@ -1251,7 +1247,7 @@
     <t>If this code is found in an instance, then the exception applies.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/consent-content-code</t>
+    <t>http://hl7.org/fhir/ValueSet/consent-content-code|4.0.1</t>
   </si>
   <si>
     <t>Consent.provision.dataPeriod</t>
@@ -1305,7 +1301,7 @@
     <t>Consent.provision.data.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1662,7 +1658,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.7890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="117.01953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1677,7 +1673,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="107.984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.39453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.0703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2721,7 +2717,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>141</v>
       </c>
@@ -2835,7 +2831,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>147</v>
       </c>
@@ -5249,7 +5245,7 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>91</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>242</v>
@@ -5315,7 +5311,7 @@
         <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -5651,7 +5647,7 @@
         <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>101</v>
@@ -5671,10 +5667,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5697,19 +5693,19 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5758,7 +5754,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5776,10 +5772,10 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -5787,10 +5783,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5816,16 +5812,16 @@
         <v>241</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5874,7 +5870,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5892,10 +5888,10 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -5903,10 +5899,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5932,10 +5928,10 @@
         <v>237</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5986,7 +5982,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6015,10 +6011,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6127,10 +6123,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6241,10 +6237,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6357,10 +6353,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6383,13 +6379,13 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6440,7 +6436,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>89</v>
@@ -6469,10 +6465,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6495,13 +6491,13 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6552,7 +6548,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6581,10 +6577,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6610,10 +6606,10 @@
         <v>207</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6664,7 +6660,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6693,10 +6689,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6722,10 +6718,10 @@
         <v>237</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6776,7 +6772,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6805,10 +6801,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6917,10 +6913,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7031,10 +7027,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7147,10 +7143,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7176,10 +7172,10 @@
         <v>109</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7209,11 +7205,11 @@
         <v>173</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7230,7 +7226,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7259,10 +7255,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7285,13 +7281,13 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7342,7 +7338,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7371,10 +7367,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7400,10 +7396,10 @@
         <v>237</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7411,7 +7407,7 @@
         <v>78</v>
       </c>
       <c r="Q51" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>78</v>
@@ -7456,7 +7452,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7485,10 +7481,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7597,10 +7593,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7711,10 +7707,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7827,10 +7823,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7856,10 +7852,10 @@
         <v>181</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7889,11 +7885,11 @@
         <v>185</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Z55" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
       </c>
@@ -7910,7 +7906,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>89</v>
@@ -7939,10 +7935,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7965,13 +7961,13 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8022,7 +8018,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>89</v>
@@ -8051,10 +8047,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8080,48 +8076,48 @@
         <v>181</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q57" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X57" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="R57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X57" t="s" s="2">
+      <c r="Y57" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="Y57" t="s" s="2">
+      <c r="Z57" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="Z57" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8138,7 +8134,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8167,10 +8163,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8193,16 +8189,16 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8231,11 +8227,11 @@
         <v>185</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Z58" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8252,7 +8248,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8281,10 +8277,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8307,16 +8303,16 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8345,11 +8341,11 @@
         <v>185</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
       </c>
@@ -8366,7 +8362,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8395,10 +8391,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8421,16 +8417,16 @@
         <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8459,11 +8455,11 @@
         <v>185</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>387</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8480,7 +8476,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8509,10 +8505,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8538,13 +8534,13 @@
         <v>181</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8570,14 +8566,14 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
       </c>
@@ -8594,7 +8590,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8623,10 +8619,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8649,16 +8645,16 @@
         <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8708,7 +8704,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -8737,10 +8733,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8766,10 +8762,10 @@
         <v>237</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8777,7 +8773,7 @@
         <v>78</v>
       </c>
       <c r="Q63" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>78</v>
@@ -8822,7 +8818,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -8851,10 +8847,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8963,10 +8959,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9077,10 +9073,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9193,10 +9189,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9222,10 +9218,10 @@
         <v>109</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9255,11 +9251,11 @@
         <v>173</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Z67" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="AA67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9276,7 +9272,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>89</v>
@@ -9305,10 +9301,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9331,13 +9327,13 @@
         <v>90</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9388,7 +9384,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>89</v>
@@ -9417,10 +9413,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9446,10 +9442,10 @@
         <v>81</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9500,7 +9496,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9529,12 +9525,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN69">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
